--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Cxcl13</t>
+  </si>
+  <si>
+    <t>Ackr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl13</t>
-  </si>
-  <si>
-    <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +540,10 @@
         <v>10.153225</v>
       </c>
       <c r="I2">
-        <v>0.8120564151155119</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8120564151155117</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>1.432733989247222</v>
+        <v>0.6106420267666667</v>
       </c>
       <c r="R2">
-        <v>12.894605903225</v>
+        <v>5.495778240899999</v>
       </c>
       <c r="S2">
-        <v>0.7087478476008595</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="T2">
-        <v>0.7087478476008594</v>
+        <v>0.6724860231084607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +602,10 @@
         <v>10.153225</v>
       </c>
       <c r="I3">
-        <v>0.8120564151155119</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8120564151155117</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +620,10 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
         <v>0.05846791023055554</v>
@@ -638,10 +632,10 @@
         <v>0.5262111920749999</v>
       </c>
       <c r="S3">
-        <v>0.02892302816896187</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="T3">
-        <v>0.02892302816896187</v>
+        <v>0.06438936513852653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,598 +664,40 @@
         <v>10.153225</v>
       </c>
       <c r="I4">
-        <v>0.8120564151155119</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8120564151155117</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>0.1503703903861111</v>
+        <v>0.2389268188361111</v>
       </c>
       <c r="R4">
-        <v>1.353333513475</v>
+        <v>2.150341369525</v>
       </c>
       <c r="S4">
-        <v>0.07438553934569042</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="T4">
-        <v>0.07438553934569041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.203433</v>
-      </c>
-      <c r="H5">
-        <v>0.6102989999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="J5">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.4233336666666667</v>
-      </c>
-      <c r="N5">
-        <v>1.270001</v>
-      </c>
-      <c r="O5">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="P5">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="Q5">
-        <v>0.08612003781099999</v>
-      </c>
-      <c r="R5">
-        <v>0.7750803402989999</v>
-      </c>
-      <c r="S5">
-        <v>0.04260204049875354</v>
-      </c>
-      <c r="T5">
-        <v>0.04260204049875353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.203433</v>
-      </c>
-      <c r="H6">
-        <v>0.6102989999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="J6">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.01727566666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.051827</v>
-      </c>
-      <c r="O6">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="P6">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="Q6">
-        <v>0.003514440696999999</v>
-      </c>
-      <c r="R6">
-        <v>0.03162996627299999</v>
-      </c>
-      <c r="S6">
-        <v>0.001738530877478758</v>
-      </c>
-      <c r="T6">
-        <v>0.001738530877478757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.203433</v>
-      </c>
-      <c r="H7">
-        <v>0.6102989999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="J7">
-        <v>0.0488118029580337</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.04443033333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.133291</v>
-      </c>
-      <c r="O7">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="P7">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="Q7">
-        <v>0.009038596001000002</v>
-      </c>
-      <c r="R7">
-        <v>0.081347364009</v>
-      </c>
-      <c r="S7">
-        <v>0.0044712315818014</v>
-      </c>
-      <c r="T7">
-        <v>0.004471231581801399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03079733333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.092392</v>
-      </c>
-      <c r="I8">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="J8">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.4233336666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.270001</v>
-      </c>
-      <c r="O8">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="P8">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="Q8">
-        <v>0.01303754804355555</v>
-      </c>
-      <c r="R8">
-        <v>0.117337932392</v>
-      </c>
-      <c r="S8">
-        <v>0.006449441545473346</v>
-      </c>
-      <c r="T8">
-        <v>0.006449441545473346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03079733333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.092392</v>
-      </c>
-      <c r="I9">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="J9">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01727566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.051827</v>
-      </c>
-      <c r="O9">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="P9">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="Q9">
-        <v>0.0005320444648888888</v>
-      </c>
-      <c r="R9">
-        <v>0.004788400184</v>
-      </c>
-      <c r="S9">
-        <v>0.0002631928691215575</v>
-      </c>
-      <c r="T9">
-        <v>0.0002631928691215574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03079733333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.092392</v>
-      </c>
-      <c r="I10">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="J10">
-        <v>0.00738952562415906</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04443033333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.133291</v>
-      </c>
-      <c r="O10">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="P10">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="Q10">
-        <v>0.001368335785777778</v>
-      </c>
-      <c r="R10">
-        <v>0.012315022072</v>
-      </c>
-      <c r="S10">
-        <v>0.0006768912095641562</v>
-      </c>
-      <c r="T10">
-        <v>0.0006768912095641562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.5490623333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.647187</v>
-      </c>
-      <c r="I11">
-        <v>0.1317422563022956</v>
-      </c>
-      <c r="J11">
-        <v>0.1317422563022955</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.4233336666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.270001</v>
-      </c>
-      <c r="O11">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="P11">
-        <v>0.8727815388294702</v>
-      </c>
-      <c r="Q11">
-        <v>0.2324365707985555</v>
-      </c>
-      <c r="R11">
-        <v>2.091929137187</v>
-      </c>
-      <c r="S11">
-        <v>0.114982209184384</v>
-      </c>
-      <c r="T11">
-        <v>0.114982209184384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.5490623333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.647187</v>
-      </c>
-      <c r="I12">
-        <v>0.1317422563022956</v>
-      </c>
-      <c r="J12">
-        <v>0.1317422563022955</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.01727566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.051827</v>
-      </c>
-      <c r="O12">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="P12">
-        <v>0.03561701826448558</v>
-      </c>
-      <c r="Q12">
-        <v>0.009485417849888888</v>
-      </c>
-      <c r="R12">
-        <v>0.08536876064899999</v>
-      </c>
-      <c r="S12">
-        <v>0.004692266348923401</v>
-      </c>
-      <c r="T12">
-        <v>0.0046922663489234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.5490623333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.647187</v>
-      </c>
-      <c r="I13">
-        <v>0.1317422563022956</v>
-      </c>
-      <c r="J13">
-        <v>0.1317422563022955</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.04443033333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.133291</v>
-      </c>
-      <c r="O13">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="P13">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="Q13">
-        <v>0.02439502249077778</v>
-      </c>
-      <c r="R13">
-        <v>0.219555202417</v>
-      </c>
-      <c r="S13">
-        <v>0.01206778076898816</v>
-      </c>
-      <c r="T13">
-        <v>0.01206778076898815</v>
+        <v>0.2631246117530128</v>
       </c>
     </row>
   </sheetData>
